--- a/gdp.xlsx
+++ b/gdp.xlsx
@@ -14,9 +14,252 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bahamas, The</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Channel Islands</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Hong Kong SAR, China</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>St. Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Macao SAR, China</t>
+  </si>
+  <si>
+    <t>St. Martin (French part)</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Sint Maarten (Dutch part)</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Virgin Islands (U.S.)</t>
   </si>
 </sst>
 </file>
@@ -374,355 +617,622 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>3126019399.06492</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>3330281523.53915</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>415021590683.006</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>1471125925.92593</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>1552667363236.06</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>480368403893.364</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>594104177539.525</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>38868663031.9149</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>11208600000</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>7286607000</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>4843800000</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
         <v>14006569575.68</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>1988336331717.42</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>800640155387.26</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>317058508651.76</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>2699612458.10056</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
         <v>5898449687.97711</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>28407867534.0035</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
         <v>281777887121.451</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
         <v>4259934911821.64</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
         <v>398303272764.46</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>1427380681294.55</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
         <v>37191166151.98</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>297301883523.251</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27">
         <v>2957879759263.52</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28">
         <v>3649886275.07118</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29">
         <v>3131377762925.95</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
         <v>214873879833.648</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33">
         <v>6123000000</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
         <v>369176400967.427</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35">
         <v>68955083280.1922</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
         <v>181848022233.89</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
         <v>504182603275.542</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
         <v>25602419210.3374</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
         <v>488526545878.891</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41">
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41">
         <v>2107702842669.73</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42">
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42">
         <v>4940877780755.33</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43">
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43">
         <v>860840740.740741</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44">
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
         <v>1810955871380.98</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47">
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47">
         <v>66445256585.3671</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48">
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48">
         <v>85506243833.7816</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49">
         <v>39853501579.8211</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50">
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50">
         <v>30123914808.5691</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52">
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52">
         <v>8596096984.033119</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53">
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
         <v>17364044943.8202</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55">
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55">
         <v>10071351960.0477</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56">
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56">
         <v>1012846760976.73</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57">
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57">
         <v>482174854481.956</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58">
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58">
         <v>133218896.932607</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59">
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59">
         <v>249885687029.634</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60">
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60">
         <v>88191977373.21201</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61">
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61">
         <v>63605100000</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62">
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62">
         <v>679444832854.295</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63">
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63">
         <v>106525700000</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64">
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
         <v>253663144586.019</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65">
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
         <v>6054676735.37523</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66">
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
         <v>179677211793.938</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67">
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
         <v>284087563695.798</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68">
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
         <v>833541236569.3149</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69">
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
         <v>396986899888.351</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71">
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
         <v>116527101097.7</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72">
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
         <v>61748586534.8672</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73">
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
         <v>635663801201.765</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75">
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
         <v>1454458183.85981</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
-      <c r="A76">
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
         <v>943269800</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
-      <c r="A77">
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
         <v>24460196270.6866</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
-      <c r="A78">
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
         <v>59319484710.6527</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
-      <c r="A79">
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
         <v>23315080560000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
